--- a/docss/trend/spain/E_hernia.xlsx
+++ b/docss/trend/spain/E_hernia.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej19_Hernia_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej19_Hernia" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12810,7 +12810,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12834,13 +12834,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>0.15157480897725489</v>
+        <v>0.152</v>
       </c>
       <c r="C2">
-        <v>0.175636856932225</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="D2">
-        <v>0.12628807767688224</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12848,13 +12848,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.12193191743802284</v>
+        <v>0.122</v>
       </c>
       <c r="C3">
-        <v>0.14658222919505742</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D3">
-        <v>9.6079938508839363E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12862,13 +12862,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>0.13025732217694874</v>
+        <v>0.13</v>
       </c>
       <c r="C4">
-        <v>0.16323162340650796</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="D4">
-        <v>9.5523528639147939E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12876,13 +12876,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>9.808494713722922E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="C5">
-        <v>0.12142816873311389</v>
+        <v>0.121</v>
       </c>
       <c r="D5">
-        <v>7.3393906241578336E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12890,13 +12890,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>0.12619232025087032</v>
+        <v>0.126</v>
       </c>
       <c r="C6">
-        <v>0.13881120451381376</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="D6">
-        <v>0.11278468644230467</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12904,13 +12904,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>5.2673483155627865E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C7">
-        <v>7.079263166692068E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D7">
-        <v>3.3424798902830975E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12918,13 +12918,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>8.529609169161112E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C8">
-        <v>8.4549994328343245E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D8">
-        <v>8.6674913916051408E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12932,13 +12932,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>9.1955333616249246E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="C9">
-        <v>0.12143724551753696</v>
+        <v>0.121</v>
       </c>
       <c r="D9">
-        <v>6.0660689693085336E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12946,13 +12946,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>6.4356765303837674E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C10">
-        <v>6.2457710924894605E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D10">
-        <v>6.6374924291101978E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12960,13 +12960,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>8.548301751632513E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C11">
-        <v>7.2980109602855517E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D11">
-        <v>9.8779543462117161E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12974,13 +12974,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>4.9337483718972085E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C12">
-        <v>5.1229057121199142E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D12">
-        <v>4.6752410473746307E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12988,13 +12988,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>8.0960393803372138E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="C13">
-        <v>0.10082868576109903</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D13">
-        <v>5.9813935097813908E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13002,13 +13002,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>8.0049694850563236E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C14">
-        <v>7.4456294542896526E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D14">
-        <v>8.6014319730113531E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13016,13 +13016,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>3.2302441297379102E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C15">
-        <v>1.2517544120431292E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D15">
-        <v>5.3405118713737716E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13030,13 +13030,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>5.943619813056647E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C16">
-        <v>5.1189270728855242E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D16">
-        <v>6.8230044417758914E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
   </sheetData>
